--- a/create_forecast_basic/future/bau/Intermediates/240501_pop_2040_bau.xlsx
+++ b/create_forecast_basic/future/bau/Intermediates/240501_pop_2040_bau.xlsx
@@ -8838,7 +8838,7 @@
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
-        <v>27694.12850708579</v>
+        <v>28110.19648774186</v>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr"/>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
-        <v>11738.63802274251</v>
+        <v>11133.6431204399</v>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
-        <v>12575.26820082905</v>
+        <v>12764.19512247559</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
